--- a/midi2txt.xlsx
+++ b/midi2txt.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://southern0-my.sharepoint.com/personal/derekrenck_southern_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekrenck/Documents/GitHub/musIC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{A6A09149-A874-AB40-B1C8-DB8B4BDEF357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3AE878-98C1-334B-B7E6-A4BBF0707920}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325F0D6-5AD0-AC4D-A938-22C238BCB96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{10B1E604-E717-3D4B-910B-140056D4B55B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>F#4</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>velocity</t>
+  </si>
+  <si>
+    <t>stop-start</t>
+  </si>
+  <si>
+    <t>(start,duration,note)</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADDF89D-050A-854B-B093-40B60F7AFB3E}">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,6 +724,16 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/midi2txt.xlsx
+++ b/midi2txt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekrenck/Documents/GitHub/musIC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5325F0D6-5AD0-AC4D-A938-22C238BCB96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB407252-CA70-4542-B6B0-ADD37BFEE274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{10B1E604-E717-3D4B-910B-140056D4B55B}"/>
+    <workbookView xWindow="3260" yWindow="2240" windowWidth="28040" windowHeight="17440" xr2:uid="{10B1E604-E717-3D4B-910B-140056D4B55B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>F#4</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>(start,duration,note)</t>
+  </si>
+  <si>
+    <t>duration ratio</t>
+  </si>
+  <si>
+    <t>divide the lowest value by it and approximate</t>
+  </si>
+  <si>
+    <t>start ratio</t>
   </si>
 </sst>
 </file>
@@ -450,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADDF89D-050A-854B-B093-40B60F7AFB3E}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,7 +471,10 @@
     <col min="6" max="6" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -479,7 +491,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>B2/$B$4</f>
+        <v>0</v>
+      </c>
       <c r="B2">
         <v>0</v>
       </c>
@@ -505,7 +521,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>B3/$B$4</f>
+        <v>0</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
@@ -531,7 +551,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>B4/$B$4</f>
+        <v>1</v>
+      </c>
       <c r="B4">
         <v>0.66700000000000004</v>
       </c>
@@ -557,7 +581,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5:A10" si="3">B5/$B$4</f>
+        <v>1</v>
+      </c>
       <c r="B5">
         <v>0.66700000000000004</v>
       </c>
@@ -583,7 +611,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f t="shared" si="3"/>
+        <v>1.7496251874062969</v>
+      </c>
       <c r="B6">
         <v>1.167</v>
       </c>
@@ -609,7 +641,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f t="shared" si="3"/>
+        <v>1.7496251874062969</v>
+      </c>
       <c r="B7">
         <v>1.167</v>
       </c>
@@ -635,7 +671,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" si="3"/>
+        <v>1.9985007496251872</v>
+      </c>
       <c r="B8">
         <v>1.333</v>
       </c>
@@ -661,7 +701,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>1.9985007496251872</v>
+      </c>
       <c r="B9">
         <v>1.333</v>
       </c>
@@ -687,7 +731,11 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>3.497751124437781</v>
+      </c>
       <c r="B10">
         <v>2.3330000000000002</v>
       </c>
@@ -713,7 +761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -724,14 +772,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/midi2txt.xlsx
+++ b/midi2txt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekrenck/Documents/GitHub/musIC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB407252-CA70-4542-B6B0-ADD37BFEE274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2261E830-38B5-9C4C-BEEF-5BC4E392FE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2240" windowWidth="28040" windowHeight="17440" xr2:uid="{10B1E604-E717-3D4B-910B-140056D4B55B}"/>
   </bookViews>
@@ -80,13 +80,13 @@
     <t>(start,duration,note)</t>
   </si>
   <si>
-    <t>duration ratio</t>
-  </si>
-  <si>
     <t>divide the lowest value by it and approximate</t>
   </si>
   <si>
     <t>start ratio</t>
+  </si>
+  <si>
+    <t>duration ratio when compared to the lowest value</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +473,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -787,12 +787,12 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
